--- a/ota-settling-survey.xlsx
+++ b/ota-settling-survey.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="321">
   <si>
     <t xml:space="preserve">Digital Object Identifier</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Experimental method</t>
   </si>
   <si>
-    <t xml:space="preserve">Effective CL</t>
+    <t xml:space="preserve">Effective capacitive load</t>
   </si>
   <si>
     <t xml:space="preserve">Overall supply VDD-VSS</t>
@@ -719,6 +719,12 @@
   </si>
   <si>
     <t xml:space="preserve">Langen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1109/TCSII.2024.3423313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel Slew-Rate Enhancer With Current-Recycling Core for Switched-Capacitors Circuits</t>
   </si>
   <si>
     <t xml:space="preserve">Not specified</t>
@@ -1236,19 +1242,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ85"/>
+  <dimension ref="A1:AMJ86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="23" ySplit="3" topLeftCell="X25" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="V58" activeCellId="0" sqref="V58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="X82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="W87" activeCellId="0" sqref="W87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="1" style="1" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="1" style="1" width="7.8"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="24" style="1" width="11.63"/>
   </cols>
   <sheetData>
@@ -6398,9 +6402,77 @@
         <v>67</v>
       </c>
     </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <f aca="false">32/40</f>
+        <v>0.8</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="L86" s="1" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M86" s="1" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N86" s="1" t="n">
+        <v>386.7</v>
+      </c>
+      <c r="P86" s="1" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="Q86" s="1" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="S86" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T86" s="1" t="n">
+        <f aca="false">294.9*1.8</f>
+        <v>530.82</v>
+      </c>
+      <c r="U86" s="1" t="n">
+        <f aca="false">0.038*0.075</f>
+        <v>0.00285</v>
+      </c>
+      <c r="V86" s="1" t="n">
+        <v>61.02</v>
+      </c>
+      <c r="W86" s="1" t="n">
+        <v>83.6</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:G85" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G4:G86" type="list">
       <formula1>'Multiple choices'!$A$2:$A$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6435,10 +6507,10 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="18.02"/>
   </cols>
@@ -6459,7 +6531,7 @@
         <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>62</v>
@@ -6635,17 +6707,17 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="54.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="85.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6653,23 +6725,23 @@
         <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6677,15 +6749,15 @@
         <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6693,7 +6765,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6701,7 +6773,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6709,7 +6781,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6717,7 +6789,7 @@
         <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,7 +6797,7 @@
         <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6733,7 +6805,7 @@
         <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6741,7 +6813,7 @@
         <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6749,7 +6821,7 @@
         <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6757,7 +6829,7 @@
         <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6765,7 +6837,7 @@
         <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6773,7 +6845,7 @@
         <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6781,7 +6853,7 @@
         <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6789,7 +6861,7 @@
         <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6797,7 +6869,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6805,7 +6877,7 @@
         <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,7 +6885,7 @@
         <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6821,7 +6893,7 @@
         <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6829,7 +6901,7 @@
         <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6837,7 +6909,7 @@
         <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6845,7 +6917,7 @@
         <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6853,7 +6925,7 @@
         <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6861,15 +6933,15 @@
         <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6877,23 +6949,23 @@
         <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6901,7 +6973,7 @@
         <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6909,23 +6981,23 @@
         <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6933,7 +7005,7 @@
         <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6941,7 +7013,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6949,71 +7021,71 @@
         <v>61</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7021,15 +7093,15 @@
         <v>61</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7037,7 +7109,7 @@
         <v>61</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7045,7 +7117,7 @@
         <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7053,7 +7125,7 @@
         <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7061,7 +7133,7 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7069,7 +7141,7 @@
         <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7077,7 +7149,7 @@
         <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7085,7 +7157,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7093,7 +7165,7 @@
         <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7101,7 +7173,7 @@
         <v>61</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7109,7 +7181,7 @@
         <v>61</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7117,7 +7189,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7125,7 +7197,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7133,23 +7205,23 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7157,15 +7229,15 @@
         <v>61</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7173,7 +7245,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7181,7 +7253,7 @@
         <v>61</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7189,31 +7261,31 @@
         <v>61</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7221,7 +7293,7 @@
         <v>61</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7229,7 +7301,7 @@
         <v>61</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7237,7 +7309,7 @@
         <v>61</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7245,15 +7317,15 @@
         <v>61</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7261,15 +7333,15 @@
         <v>61</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7277,7 +7349,7 @@
         <v>61</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7285,7 +7357,7 @@
         <v>61</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7293,7 +7365,7 @@
         <v>61</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7301,7 +7373,7 @@
         <v>61</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/ota-settling-survey.xlsx
+++ b/ota-settling-survey.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Multiple choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="more" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Multiple choices" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="more" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="372">
   <si>
     <t xml:space="preserve">Digital Object Identifier</t>
   </si>
@@ -94,6 +94,15 @@
     <t xml:space="preserve">Phase Margin</t>
   </si>
   <si>
+    <t xml:space="preserve">Offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spot Noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated Noise</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOI</t>
   </si>
   <si>
@@ -163,6 +172,15 @@
     <t xml:space="preserve">PM</t>
   </si>
   <si>
+    <t xml:space="preserve">OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INOI</t>
+  </si>
+  <si>
     <t xml:space="preserve">[nm]</t>
   </si>
   <si>
@@ -196,6 +214,15 @@
     <t xml:space="preserve">[degree]</t>
   </si>
   <si>
+    <t xml:space="preserve">[mV]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nVrms/sqrt(Hz)@kHz]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uVrms@kHz</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/TCSI.2023.3239757</t>
   </si>
   <si>
@@ -214,6 +241,9 @@
     <t xml:space="preserve">Measured</t>
   </si>
   <si>
+    <t xml:space="preserve">86.3@100</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/TVLSI.2022.3218741</t>
   </si>
   <si>
@@ -229,6 +259,12 @@
     <t xml:space="preserve">RC-beta </t>
   </si>
   <si>
+    <t xml:space="preserve">48.0@1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNOI simulated</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/ACCESS.2020.3044608</t>
   </si>
   <si>
@@ -262,6 +298,9 @@
     <t xml:space="preserve">Anisheh</t>
   </si>
   <si>
+    <t xml:space="preserve">0.25@100</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/TCSI.2016.2577838</t>
   </si>
   <si>
@@ -271,6 +310,9 @@
     <t xml:space="preserve">Sutula</t>
   </si>
   <si>
+    <t xml:space="preserve">0.8@100</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/JSSC.2015.2453195</t>
   </si>
   <si>
@@ -280,12 +322,30 @@
     <t xml:space="preserve">Yan</t>
   </si>
   <si>
+    <t xml:space="preserve">430.0@0.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/JSSC.2015.2453196</t>
   </si>
   <si>
+    <t xml:space="preserve">170.0@1.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/JSSC.2015.2453197</t>
   </si>
   <si>
+    <t xml:space="preserve">110.0@10.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1470.0@0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">440.0@1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.0@10.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/TVLSI.2013.2256946</t>
   </si>
   <si>
@@ -304,6 +364,18 @@
     <t xml:space="preserve">Galan</t>
   </si>
   <si>
+    <t xml:space="preserve">50.11@100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.09@100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.67@100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.17@100</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/JSSC.2005.845977</t>
   </si>
   <si>
@@ -313,6 +385,12 @@
     <t xml:space="preserve">Lopez</t>
   </si>
   <si>
+    <t xml:space="preserve">230@1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">252@1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/TCSI.2016.2584919</t>
   </si>
   <si>
@@ -337,6 +415,9 @@
     <t xml:space="preserve">Garde</t>
   </si>
   <si>
+    <t xml:space="preserve">35@1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/TCSI.2020.2988310</t>
   </si>
   <si>
@@ -346,6 +427,9 @@
     <t xml:space="preserve">Wang</t>
   </si>
   <si>
+    <t xml:space="preserve">68.8@100</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/TCSI.2021.3089339</t>
   </si>
   <si>
@@ -355,6 +439,9 @@
     <t xml:space="preserve">Toledo</t>
   </si>
   <si>
+    <t xml:space="preserve">21@0.25</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/ACCESS.2020.2967870</t>
   </si>
   <si>
@@ -364,6 +451,9 @@
     <t xml:space="preserve">Xin</t>
   </si>
   <si>
+    <t xml:space="preserve">37.25@1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/TCSII.2017.2742240</t>
   </si>
   <si>
@@ -385,6 +475,9 @@
     <t xml:space="preserve">Grasso</t>
   </si>
   <si>
+    <t xml:space="preserve">65.0@100</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/TCSI.2016.2597440</t>
   </si>
   <si>
@@ -394,6 +487,9 @@
     <t xml:space="preserve">Cabrera</t>
   </si>
   <si>
+    <t xml:space="preserve">100@1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/JSSC.2009.2024819</t>
   </si>
   <si>
@@ -403,6 +499,15 @@
     <t xml:space="preserve">Assaad</t>
   </si>
   <si>
+    <t xml:space="preserve">48500@100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">offset (3sigma), simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69700@100000</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/ACCESS.2019.2940560</t>
   </si>
   <si>
@@ -412,6 +517,12 @@
     <t xml:space="preserve">Kuo</t>
   </si>
   <si>
+    <t xml:space="preserve">733760@100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194224@100000</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/TCSII.2005.850781</t>
   </si>
   <si>
@@ -430,6 +541,9 @@
     <t xml:space="preserve">Naderi</t>
   </si>
   <si>
+    <t xml:space="preserve">40.8@250000</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/ICECS.1998.813265</t>
   </si>
   <si>
@@ -439,6 +553,12 @@
     <t xml:space="preserve">Malcovati</t>
   </si>
   <si>
+    <t xml:space="preserve">3.9@10000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC NOISE simulation</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/ISCAS.1999.780844</t>
   </si>
   <si>
@@ -466,6 +586,9 @@
     <t xml:space="preserve">Torralba</t>
   </si>
   <si>
+    <t xml:space="preserve">4.58@100</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/ICCCAS.2006.285126</t>
   </si>
   <si>
@@ -502,12 +625,18 @@
     <t xml:space="preserve">Figueiredo</t>
   </si>
   <si>
+    <t xml:space="preserve">14.1@10000</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1007/s10470-014-0292-2</t>
   </si>
   <si>
     <t xml:space="preserve">A single-stage operational amplifier with enhanced transconductance and slew rate for switched-capacitor circuits</t>
   </si>
   <si>
+    <t xml:space="preserve">34.9@100</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/ISSCC.2012.6177044 </t>
   </si>
   <si>
@@ -550,6 +679,9 @@
     <t xml:space="preserve">Monticelli</t>
   </si>
   <si>
+    <t xml:space="preserve">36@1</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/ISCAS.1990.112694</t>
   </si>
   <si>
@@ -577,6 +709,9 @@
     <t xml:space="preserve">Sundararajan</t>
   </si>
   <si>
+    <t xml:space="preserve">48.3@166000</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/ISCAS.2002.1011482</t>
   </si>
   <si>
@@ -670,12 +805,18 @@
     <t xml:space="preserve">A 0.0045- mm2 32.4- μW Two-Stage Amplifier for pF-to-nF Load Using CM Frequency Compensation</t>
   </si>
   <si>
+    <t xml:space="preserve">130@100</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/TCSII.2022.3156401</t>
   </si>
   <si>
     <t xml:space="preserve">Two-Stage OTA With All Subthreshold MOSFETs and Optimum GBW to DC-Current Ratio</t>
   </si>
   <si>
+    <t xml:space="preserve">175.8@370.5</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.3390/electronics8121457</t>
   </si>
   <si>
@@ -712,6 +853,12 @@
     <t xml:space="preserve">Paul</t>
   </si>
   <si>
+    <t xml:space="preserve">25@1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160@1000</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1109/4.720394</t>
   </si>
   <si>
@@ -719,6 +866,12 @@
   </si>
   <si>
     <t xml:space="preserve">Langen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33@100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38@100</t>
   </si>
   <si>
     <t xml:space="preserve">10.1109/TCSII.2024.3423313</t>
@@ -995,7 +1148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1026,6 +1179,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
@@ -1054,7 +1219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1074,6 +1239,20 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1104,64 +1283,96 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1237,244 +1448,378 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="X82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="W87" activeCellId="0" sqref="W87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="X4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="AA15" activeCellId="0" sqref="AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="1" style="1" width="7.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="24" style="1" width="11.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="24" style="2" width="11.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="26" style="1" width="11.63"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="85.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="8" customFormat="true" ht="85.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AMF1" s="0"/>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="AMF1" s="9"/>
+      <c r="AMG1" s="9"/>
+      <c r="AMH1" s="9"/>
+      <c r="AMI1" s="9"/>
+      <c r="AMJ1" s="9"/>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="G2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="H2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="I2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="J2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="K2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="L2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="M2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="N2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="O2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="P2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="Q2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="R2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="S2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="T2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AMF2" s="0"/>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="10" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="U2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8" t="s">
+      <c r="V2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="W2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="X2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="Y2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Z2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="AMF2" s="9"/>
+      <c r="AMG2" s="9"/>
+      <c r="AMH2" s="9"/>
+      <c r="AMI2" s="9"/>
+      <c r="AMJ2" s="9"/>
+    </row>
+    <row r="3" s="16" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="L3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="M3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="O3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AMF3" s="11"/>
-      <c r="AMG3" s="11"/>
-      <c r="AMH3" s="11"/>
-      <c r="AMI3" s="11"/>
-      <c r="AMJ3" s="11"/>
+      <c r="Q3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AMF3" s="9"/>
+      <c r="AMG3" s="9"/>
+      <c r="AMH3" s="9"/>
+      <c r="AMI3" s="9"/>
+      <c r="AMJ3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>2023</v>
@@ -1486,13 +1831,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>160</v>
@@ -1535,16 +1880,22 @@
       <c r="W4" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="X4" s="2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>2023</v>
@@ -1556,13 +1907,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K5" s="1" t="n">
         <v>10</v>
@@ -1594,16 +1945,26 @@
       <c r="W5" s="1" t="n">
         <v>55</v>
       </c>
+      <c r="X5" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>2020</v>
@@ -1615,13 +1976,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>14</v>
@@ -1659,13 +2020,13 @@
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>2020</v>
@@ -1677,13 +2038,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K7" s="1" t="n">
         <v>100</v>
@@ -1730,13 +2091,13 @@
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>2019</v>
@@ -1748,13 +2109,13 @@
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K8" s="1" t="n">
         <v>100</v>
@@ -1780,16 +2141,19 @@
       <c r="W8" s="1" t="n">
         <v>71.4</v>
       </c>
+      <c r="Y8" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>2016</v>
@@ -1801,13 +2165,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K9" s="1" t="n">
         <v>200</v>
@@ -1833,16 +2197,19 @@
       <c r="W9" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="Y9" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>2015</v>
@@ -1854,13 +2221,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>150</v>
@@ -1898,16 +2265,22 @@
       <c r="W10" s="1" t="n">
         <v>86.4</v>
       </c>
+      <c r="X10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="17" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>2015</v>
@@ -1919,13 +2292,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K11" s="1" t="n">
         <v>500</v>
@@ -1960,16 +2333,22 @@
       <c r="V11" s="1" t="n">
         <v>72</v>
       </c>
+      <c r="X11" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="17" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>2015</v>
@@ -1981,13 +2360,13 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K12" s="1" t="n">
         <v>15000</v>
@@ -2022,16 +2401,22 @@
       <c r="V12" s="1" t="n">
         <v>72</v>
       </c>
+      <c r="X12" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="17" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>2015</v>
@@ -2043,13 +2428,13 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K13" s="1" t="n">
         <v>150</v>
@@ -2084,16 +2469,22 @@
       <c r="V13" s="1" t="n">
         <v>84</v>
       </c>
+      <c r="X13" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="17" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>2015</v>
@@ -2105,13 +2496,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K14" s="1" t="n">
         <v>500</v>
@@ -2146,16 +2537,22 @@
       <c r="V14" s="1" t="n">
         <v>84</v>
       </c>
+      <c r="X14" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="17" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>2015</v>
@@ -2167,13 +2564,13 @@
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>15000</v>
@@ -2208,16 +2605,22 @@
       <c r="V15" s="1" t="n">
         <v>84</v>
       </c>
+      <c r="X15" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="17" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>2014</v>
@@ -2229,13 +2632,13 @@
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K16" s="1" t="n">
         <v>30</v>
@@ -2265,16 +2668,19 @@
       <c r="V16" s="1" t="n">
         <v>68</v>
       </c>
+      <c r="X16" s="2" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>2014</v>
@@ -2286,13 +2692,13 @@
         <v>2</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K17" s="1" t="n">
         <v>30</v>
@@ -2322,16 +2728,19 @@
       <c r="V17" s="1" t="n">
         <v>75</v>
       </c>
+      <c r="X17" s="2" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>2014</v>
@@ -2343,13 +2752,13 @@
         <v>2</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K18" s="1" t="n">
         <v>30</v>
@@ -2378,16 +2787,19 @@
       <c r="V18" s="1" t="n">
         <v>70</v>
       </c>
+      <c r="X18" s="2" t="n">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>2007</v>
@@ -2399,13 +2811,13 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K19" s="1" t="n">
         <v>80</v>
@@ -2437,16 +2849,19 @@
       <c r="W19" s="1" t="n">
         <v>89.5</v>
       </c>
+      <c r="Y19" s="17" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>2007</v>
@@ -2458,13 +2873,13 @@
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K20" s="1" t="n">
         <v>80</v>
@@ -2496,16 +2911,19 @@
       <c r="W20" s="1" t="n">
         <v>56</v>
       </c>
+      <c r="Y20" s="17" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>2007</v>
@@ -2517,13 +2935,13 @@
         <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K21" s="1" t="n">
         <v>80</v>
@@ -2555,16 +2973,19 @@
       <c r="W21" s="1" t="n">
         <v>58</v>
       </c>
+      <c r="Y21" s="17" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>2007</v>
@@ -2576,13 +2997,13 @@
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K22" s="1" t="n">
         <v>80</v>
@@ -2614,16 +3035,19 @@
       <c r="W22" s="1" t="n">
         <v>71</v>
       </c>
+      <c r="Y22" s="17" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>2005</v>
@@ -2635,13 +3059,13 @@
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K23" s="1" t="n">
         <v>80</v>
@@ -2682,16 +3106,19 @@
       <c r="W23" s="1" t="n">
         <v>89.5</v>
       </c>
+      <c r="Z23" s="19" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>2005</v>
@@ -2703,13 +3130,13 @@
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K24" s="1" t="n">
         <v>80</v>
@@ -2750,16 +3177,19 @@
       <c r="W24" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="Z24" s="19" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>2005</v>
@@ -2771,13 +3201,13 @@
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K25" s="1" t="n">
         <v>80</v>
@@ -2818,16 +3248,19 @@
       <c r="W25" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="Z25" s="19" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>2016</v>
@@ -2839,13 +3272,13 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K26" s="1" t="n">
         <v>100</v>
@@ -2883,13 +3316,13 @@
     </row>
     <row r="27" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>2016</v>
@@ -2901,13 +3334,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K27" s="1" t="n">
         <v>1500</v>
@@ -2945,13 +3378,13 @@
     </row>
     <row r="28" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>2016</v>
@@ -2963,13 +3396,13 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K28" s="1" t="n">
         <v>15000</v>
@@ -3007,13 +3440,13 @@
     </row>
     <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>2018</v>
@@ -3025,13 +3458,13 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>70</v>
@@ -3075,13 +3508,13 @@
     </row>
     <row r="30" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>2018</v>
@@ -3093,13 +3526,13 @@
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K30" s="1" t="n">
         <v>70</v>
@@ -3140,16 +3573,22 @@
       <c r="W30" s="1" t="n">
         <v>75.1</v>
       </c>
+      <c r="X30" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y30" s="17" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>2020</v>
@@ -3161,13 +3600,13 @@
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>130</v>
@@ -3208,16 +3647,22 @@
       <c r="W31" s="1" t="n">
         <v>67.9</v>
       </c>
+      <c r="X31" s="2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y31" s="17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>2021</v>
@@ -3229,13 +3674,13 @@
         <v>1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>150</v>
@@ -3264,16 +3709,22 @@
       <c r="W32" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="X32" s="2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Z32" s="19" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>2020</v>
@@ -3285,13 +3736,13 @@
         <v>2</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K33" s="1" t="n">
         <v>120</v>
@@ -3332,16 +3783,19 @@
       <c r="W33" s="1" t="n">
         <v>58.3</v>
       </c>
+      <c r="Y33" s="17" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>2018</v>
@@ -3353,13 +3807,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K34" s="1" t="n">
         <v>1</v>
@@ -3385,13 +3839,13 @@
     </row>
     <row r="35" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>2017</v>
@@ -3403,13 +3857,13 @@
         <v>2</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K35" s="1" t="n">
         <v>10</v>
@@ -3450,16 +3904,22 @@
       <c r="W35" s="1" t="n">
         <v>60</v>
       </c>
+      <c r="X35" s="2" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="Y35" s="17" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>2016</v>
@@ -3471,13 +3931,13 @@
         <v>3</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K36" s="1" t="n">
         <v>20</v>
@@ -3519,16 +3979,22 @@
       <c r="W36" s="1" t="n">
         <v>60</v>
       </c>
+      <c r="X36" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y36" s="17" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>2009</v>
@@ -3540,13 +4006,13 @@
         <v>1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K37" s="1" t="n">
         <v>5.6</v>
@@ -3582,16 +4048,26 @@
       <c r="W37" s="1" t="n">
         <v>70.6</v>
       </c>
+      <c r="X37" s="2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y37" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z37" s="0"/>
+      <c r="AA37" s="1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>2009</v>
@@ -3603,13 +4079,13 @@
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K38" s="1" t="n">
         <v>5.6</v>
@@ -3642,16 +4118,22 @@
       <c r="W38" s="1" t="n">
         <v>79.8</v>
       </c>
+      <c r="X38" s="2" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="Y38" s="17" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>2019</v>
@@ -3663,13 +4145,13 @@
         <v>3</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K39" s="1" t="n">
         <v>5</v>
@@ -3704,16 +4186,19 @@
       <c r="W39" s="1" t="n">
         <v>53</v>
       </c>
+      <c r="Y39" s="17" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>2019</v>
@@ -3725,13 +4210,13 @@
         <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K40" s="1" t="n">
         <v>5</v>
@@ -3766,16 +4251,19 @@
       <c r="W40" s="1" t="n">
         <v>57</v>
       </c>
+      <c r="Y40" s="17" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>2005</v>
@@ -3787,13 +4275,13 @@
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K41" s="1" t="n">
         <v>470</v>
@@ -3837,13 +4325,13 @@
     </row>
     <row r="42" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>2018</v>
@@ -3855,13 +4343,13 @@
         <v>2</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>0.5</v>
@@ -3896,16 +4384,19 @@
       <c r="W42" s="1" t="n">
         <v>65</v>
       </c>
+      <c r="Z42" s="19" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>1998</v>
@@ -3917,13 +4408,13 @@
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K43" s="1" t="n">
         <v>4</v>
@@ -3949,16 +4440,22 @@
       <c r="W43" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="Y43" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA43" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>2000</v>
@@ -3970,13 +4467,13 @@
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K44" s="1" t="n">
         <v>5</v>
@@ -4015,13 +4512,13 @@
     </row>
     <row r="45" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>2002</v>
@@ -4033,13 +4530,13 @@
         <v>2</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>4</v>
@@ -4075,13 +4572,13 @@
     </row>
     <row r="46" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>2003</v>
@@ -4093,13 +4590,13 @@
         <v>2</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K46" s="1" t="n">
         <v>10</v>
@@ -4126,16 +4623,19 @@
       <c r="W46" s="1" t="n">
         <v>75</v>
       </c>
+      <c r="Y46" s="17" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>2006</v>
@@ -4147,13 +4647,13 @@
         <v>2</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K47" s="1" t="n">
         <f aca="false">5+1*1/(1+1)</f>
@@ -4183,13 +4683,13 @@
     </row>
     <row r="48" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>2006</v>
@@ -4201,13 +4701,13 @@
         <v>2</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K48" s="1" t="n">
         <v>25</v>
@@ -4238,13 +4738,13 @@
     </row>
     <row r="49" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>2009</v>
@@ -4256,13 +4756,13 @@
         <v>2</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K49" s="1" t="n">
         <v>1.75</v>
@@ -4291,13 +4791,13 @@
     </row>
     <row r="50" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>2011</v>
@@ -4309,13 +4809,13 @@
         <v>2</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K50" s="1" t="n">
         <v>5.5</v>
@@ -4351,16 +4851,19 @@
       <c r="W50" s="1" t="n">
         <v>45</v>
       </c>
+      <c r="Y50" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>2014</v>
@@ -4372,13 +4875,13 @@
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K51" s="1" t="n">
         <v>5</v>
@@ -4413,16 +4916,19 @@
       <c r="W51" s="1" t="n">
         <v>62.2</v>
       </c>
+      <c r="Y51" s="17" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>2012</v>
@@ -4434,13 +4940,13 @@
         <v>3</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K52" s="1" t="n">
         <v>1000</v>
@@ -4478,13 +4984,13 @@
     </row>
     <row r="53" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>2012</v>
@@ -4496,13 +5002,13 @@
         <v>3</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K53" s="1" t="n">
         <v>15000</v>
@@ -4537,13 +5043,13 @@
     </row>
     <row r="54" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>2014</v>
@@ -4555,13 +5061,13 @@
         <v>3</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K54" s="1" t="n">
         <v>500</v>
@@ -4599,13 +5105,13 @@
     </row>
     <row r="55" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>2014</v>
@@ -4617,13 +5123,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K55" s="1" t="n">
         <v>4400</v>
@@ -4655,16 +5161,19 @@
       <c r="W55" s="1" t="n">
         <v>55.4</v>
       </c>
+      <c r="X55" s="2" t="n">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>2014</v>
@@ -4676,13 +5185,13 @@
         <v>1</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K56" s="1" t="n">
         <v>19000</v>
@@ -4711,16 +5220,19 @@
       <c r="W56" s="1" t="n">
         <v>80.4</v>
       </c>
+      <c r="X56" s="2" t="n">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>2014</v>
@@ -4732,13 +5244,13 @@
         <v>3</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K57" s="1" t="n">
         <v>330</v>
@@ -4776,13 +5288,13 @@
     </row>
     <row r="58" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>2014</v>
@@ -4794,13 +5306,13 @@
         <v>3</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K58" s="1" t="n">
         <v>680</v>
@@ -4829,13 +5341,13 @@
     </row>
     <row r="59" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>174</v>
+        <v>217</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>1986</v>
@@ -4844,13 +5356,13 @@
         <v>3</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="L59" s="1" t="n">
         <v>5</v>
@@ -4883,16 +5395,22 @@
       <c r="W59" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="X59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="17" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>1990</v>
@@ -4904,13 +5422,13 @@
         <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K60" s="1" t="n">
         <v>130</v>
@@ -4942,13 +5460,13 @@
     </row>
     <row r="61" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>1998</v>
@@ -4960,13 +5478,13 @@
         <v>2</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K61" s="1" t="n">
         <v>20</v>
@@ -5002,16 +5520,19 @@
       <c r="W61" s="1" t="n">
         <v>61</v>
       </c>
+      <c r="X61" s="2" t="n">
+        <v>0.072</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>2016</v>
@@ -5023,13 +5544,13 @@
         <v>2</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K62" s="1" t="n">
         <v>5.2</v>
@@ -5062,16 +5583,19 @@
       <c r="W62" s="1" t="n">
         <v>82.5</v>
       </c>
+      <c r="Z62" s="19" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>2002</v>
@@ -5080,13 +5604,13 @@
         <v>1</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K63" s="1" t="n">
         <v>470</v>
@@ -5125,13 +5649,13 @@
     </row>
     <row r="64" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>2002</v>
@@ -5140,13 +5664,13 @@
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K64" s="1" t="n">
         <v>470</v>
@@ -5185,13 +5709,13 @@
     </row>
     <row r="65" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>2012</v>
@@ -5203,13 +5727,13 @@
         <v>1</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K65" s="1" t="n">
         <v>8</v>
@@ -5239,16 +5763,19 @@
       <c r="W65" s="1" t="n">
         <v>60</v>
       </c>
+      <c r="X65" s="2" t="n">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>2013</v>
@@ -5260,13 +5787,13 @@
         <v>2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K66" s="1" t="n">
         <v>50</v>
@@ -5299,13 +5826,13 @@
     </row>
     <row r="67" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>2015</v>
@@ -5317,13 +5844,13 @@
         <v>1</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K67" s="1" t="n">
         <v>500</v>
@@ -5349,16 +5876,19 @@
       <c r="W67" s="1" t="n">
         <v>90</v>
       </c>
+      <c r="X67" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>2021</v>
@@ -5370,13 +5900,13 @@
         <v>3</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K68" s="1" t="n">
         <v>0.6</v>
@@ -5403,13 +5933,13 @@
     </row>
     <row r="69" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>198</v>
+        <v>243</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>2021</v>
@@ -5421,13 +5951,13 @@
         <v>3</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K69" s="1" t="n">
         <v>100</v>
@@ -5464,13 +5994,13 @@
     </row>
     <row r="70" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>2015</v>
@@ -5482,13 +6012,13 @@
         <v>3</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K70" s="1" t="n">
         <v>500</v>
@@ -5521,13 +6051,13 @@
     </row>
     <row r="71" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>202</v>
+        <v>247</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>2017</v>
@@ -5539,13 +6069,13 @@
         <v>2</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K71" s="1" t="n">
         <v>2</v>
@@ -5580,13 +6110,13 @@
     </row>
     <row r="72" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>206</v>
+        <v>251</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>2014</v>
@@ -5598,13 +6128,13 @@
         <v>1</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K72" s="1" t="n">
         <v>0.3</v>
@@ -5639,13 +6169,13 @@
     </row>
     <row r="73" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>2011</v>
@@ -5657,13 +6187,13 @@
         <v>2</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K73" s="1" t="n">
         <v>3</v>
@@ -5699,13 +6229,13 @@
     </row>
     <row r="74" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>2010</v>
@@ -5717,13 +6247,13 @@
         <v>2</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K74" s="1" t="n">
         <v>4</v>
@@ -5749,13 +6279,13 @@
     </row>
     <row r="75" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>2014</v>
@@ -5767,13 +6297,13 @@
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K75" s="1" t="n">
         <v>20</v>
@@ -5805,16 +6335,19 @@
       <c r="W75" s="1" t="n">
         <v>74</v>
       </c>
+      <c r="Y75" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>2014</v>
@@ -5826,13 +6359,13 @@
         <v>2</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K76" s="1" t="n">
         <v>150</v>
@@ -5864,16 +6397,19 @@
       <c r="W76" s="1" t="n">
         <v>43.4</v>
       </c>
+      <c r="Y76" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>2014</v>
@@ -5885,13 +6421,13 @@
         <v>2</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K77" s="1" t="n">
         <v>500</v>
@@ -5923,16 +6459,19 @@
       <c r="W77" s="1" t="n">
         <v>39.5</v>
       </c>
+      <c r="Y77" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>2022</v>
@@ -5944,13 +6483,13 @@
         <v>2</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K78" s="1" t="n">
         <v>40</v>
@@ -5993,16 +6532,19 @@
       <c r="W78" s="1" t="n">
         <v>54</v>
       </c>
+      <c r="Y78" s="17" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>217</v>
+        <v>264</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>219</v>
+        <v>266</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>2019</v>
@@ -6014,13 +6556,13 @@
         <v>1</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K79" s="1" t="n">
         <v>18.4</v>
@@ -6057,13 +6599,13 @@
     </row>
     <row r="80" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>2023</v>
@@ -6075,13 +6617,13 @@
         <v>1</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K80" s="1" t="n">
         <v>1000</v>
@@ -6110,13 +6652,13 @@
     </row>
     <row r="81" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>2020</v>
@@ -6128,13 +6670,13 @@
         <v>1</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K81" s="1" t="n">
         <v>6</v>
@@ -6158,13 +6700,13 @@
     </row>
     <row r="82" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>2019</v>
@@ -6176,13 +6718,13 @@
         <v>2</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K82" s="1" t="n">
         <v>50</v>
@@ -6215,16 +6757,19 @@
       <c r="W82" s="1" t="n">
         <v>62</v>
       </c>
+      <c r="Y82" s="17" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>2019</v>
@@ -6236,13 +6781,13 @@
         <v>2</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K83" s="1" t="n">
         <v>50</v>
@@ -6275,16 +6820,19 @@
       <c r="W83" s="1" t="n">
         <v>62</v>
       </c>
+      <c r="Y83" s="17" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>1998</v>
@@ -6296,13 +6844,13 @@
         <v>2</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K84" s="1" t="n">
         <v>5</v>
@@ -6338,16 +6886,22 @@
       <c r="W84" s="1" t="n">
         <v>67</v>
       </c>
+      <c r="X84" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y84" s="17" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>230</v>
+        <v>279</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>1998</v>
@@ -6359,13 +6913,13 @@
         <v>2</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K85" s="1" t="n">
         <v>5</v>
@@ -6401,16 +6955,22 @@
       <c r="W85" s="1" t="n">
         <v>67</v>
       </c>
+      <c r="X85" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y85" s="17" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="D86" s="1" t="n">
         <v>2024</v>
@@ -6422,17 +6982,17 @@
         <v>1</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I86" s="1" t="n">
         <f aca="false">32/40</f>
         <v>0.8</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K86" s="1" t="n">
         <v>8</v>
@@ -6468,6 +7028,9 @@
       </c>
       <c r="W86" s="1" t="n">
         <v>83.6</v>
+      </c>
+      <c r="X86" s="2" t="n">
+        <v>2.28</v>
       </c>
     </row>
   </sheetData>
@@ -6489,6 +7052,43 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="Z3" r:id="rId1" display="uVrms@kHz"/>
+    <hyperlink ref="Y10" r:id="rId2" display="430.0@0.1"/>
+    <hyperlink ref="Y11" r:id="rId3" display="170.0@1.0"/>
+    <hyperlink ref="Y12" r:id="rId4" display="110.0@10.0"/>
+    <hyperlink ref="Y13" r:id="rId5" display="1470.0@0.1"/>
+    <hyperlink ref="Y14" r:id="rId6" display="440.0@1.0"/>
+    <hyperlink ref="Y15" r:id="rId7" display="140.0@10.0"/>
+    <hyperlink ref="Y19" r:id="rId8" display="50.11@100"/>
+    <hyperlink ref="Y20" r:id="rId9" display="53.09@100"/>
+    <hyperlink ref="Y21" r:id="rId10" display="46.67@100"/>
+    <hyperlink ref="Y22" r:id="rId11" display="42.17@100"/>
+    <hyperlink ref="Z23" r:id="rId12" display="230@1000"/>
+    <hyperlink ref="Z24" r:id="rId13" display="230@1000"/>
+    <hyperlink ref="Z25" r:id="rId14" display="252@1000"/>
+    <hyperlink ref="Y30" r:id="rId15" display="35@1000"/>
+    <hyperlink ref="Y31" r:id="rId16" display="68.8@100"/>
+    <hyperlink ref="Z32" r:id="rId17" display="21@0.25"/>
+    <hyperlink ref="Y33" r:id="rId18" display="37.25@1000"/>
+    <hyperlink ref="Y35" r:id="rId19" display="65.0@100"/>
+    <hyperlink ref="Y36" r:id="rId20" display="100@1000"/>
+    <hyperlink ref="Y37" r:id="rId21" display="48500@100000"/>
+    <hyperlink ref="Y38" r:id="rId22" display="69700@100000"/>
+    <hyperlink ref="Y39" r:id="rId23" display="733760@100000"/>
+    <hyperlink ref="Y40" r:id="rId24" display="194224@100000"/>
+    <hyperlink ref="Z42" r:id="rId25" display="40.8@250000"/>
+    <hyperlink ref="Y43" r:id="rId26" display="3.9@10000"/>
+    <hyperlink ref="Y46" r:id="rId27" display="4.58@100"/>
+    <hyperlink ref="Y51" r:id="rId28" display="34.9@100"/>
+    <hyperlink ref="Y59" r:id="rId29" display="36@1"/>
+    <hyperlink ref="Z62" r:id="rId30" display="48.3@166000"/>
+    <hyperlink ref="Y78" r:id="rId31" display="175.8@370.5"/>
+    <hyperlink ref="Y82" r:id="rId32" display="25@1000"/>
+    <hyperlink ref="Y83" r:id="rId33" display="160@1000"/>
+    <hyperlink ref="Y84" r:id="rId34" display="33@100"/>
+    <hyperlink ref="Y85" r:id="rId35" display="38@100"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6500,67 +7100,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="0" width="18.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="9" width="18.02"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="true" ht="103.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="21" customFormat="true" ht="103.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6578,112 +7178,112 @@
     <row r="19" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6697,13 +7297,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -6712,668 +7312,668 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="54.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="85.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>236</v>
+    <row r="1" customFormat="false" ht="1.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>310</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>316</v>
+        <v>367</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
